--- a/Resources/Credential.xlsx
+++ b/Resources/Credential.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18576" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -43,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -361,29 +361,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,19 +392,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -411,7 +412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
